--- a/LFF.xlsx
+++ b/LFF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P52s\Desktop\UNI\OOP(CPP)\KP1\komandinis-projektas_cpp_2_semestras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEBBC89-E216-4041-B94A-77DE6366EE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0CB5FD-E691-48C1-8B49-E68F354F98EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3AD54899-F830-4667-B4D7-34AFED1E80AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3AD54899-F830-4667-B4D7-34AFED1E80AC}"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>STUDENTAS</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>rosa1273</t>
+  </si>
+  <si>
+    <t>Atsiskaitymas</t>
+  </si>
+  <si>
+    <t>Klaidų taisymas: readme, uml diagramu taisymas</t>
+  </si>
+  <si>
+    <t>2 diagramos</t>
   </si>
 </sst>
 </file>
@@ -358,15 +367,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -379,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -388,6 +395,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C799B0C-A606-44B4-AB79-16BDF45BF43C}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,183 +749,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="10">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="10">
         <v>2</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>45739</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.5625</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4">
         <v>120</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>45742</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="13">
         <v>120</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>45742</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="21">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="23">
         <v>120</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="24" t="s">
         <v>18</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45752</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="3">
+        <v>70</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45752</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>70</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
